--- a/resources/data/ChallengeData.xlsx
+++ b/resources/data/ChallengeData.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aaaWork\Web\GitHub\BookWrangling\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aaaWork\Web\GitHub\NCWrangling\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengeData_1" sheetId="1" r:id="rId1"/>
     <sheet name="ChallengeData_2" sheetId="2" r:id="rId2"/>
     <sheet name="ChallengeData_3" sheetId="3" r:id="rId3"/>
+    <sheet name="ChallengeData_4" sheetId="4" r:id="rId4"/>
+    <sheet name="ChallengeData_5" sheetId="5" r:id="rId5"/>
+    <sheet name="ChallengeData_6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
   <si>
     <t>lake</t>
   </si>
@@ -92,6 +95,48 @@
   </si>
   <si>
     <t xml:space="preserve">  source: https://www.epa.gov/greatlakes/physical-features-great-lakes</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Math_Grade8</t>
+  </si>
+  <si>
+    <t>Math_ACT</t>
+  </si>
+  <si>
+    <t>Student_ID</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Math assessment scores</t>
+  </si>
+  <si>
+    <t>Student_ID: A unique student identification number</t>
+  </si>
+  <si>
+    <t>Gender: Student gender (F or M)</t>
+  </si>
+  <si>
+    <t>Math_Grade8: Math assessment score in 8th grade</t>
+  </si>
+  <si>
+    <t>Math_ACT: Math assessmetn socre on the ACT in 12th grade</t>
   </si>
 </sst>
 </file>
@@ -411,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -870,4 +915,416 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>345234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>552345</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>78</v>
+      </c>
+      <c r="D3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>834388</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>987221</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>764433</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>133322</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>177772</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>94</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>345234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>552345</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>78</v>
+      </c>
+      <c r="D3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>834388</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>987221</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>764433</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>133322</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>177772</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>94</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>345234</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>552345</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>78</v>
+      </c>
+      <c r="D9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>834388</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>67</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>987221</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>764433</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>133322</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>177772</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>94</v>
+      </c>
+      <c r="D14">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>